--- a/raw_data/20200818_saline/20200818_Sensor3_Test_25.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_25.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F94F3F66-E289-4BC9-ABA3-653DB723CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>22156.884135</v>
       </c>
       <c r="B2" s="1">
-        <v>6.154690</v>
+        <v>6.1546900000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>1141.980000</v>
+        <v>1141.98</v>
       </c>
       <c r="D2" s="1">
-        <v>-258.542000</v>
+        <v>-258.54199999999997</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>22167.320952</v>
+        <v>22167.320951999998</v>
       </c>
       <c r="G2" s="1">
-        <v>6.157589</v>
+        <v>6.1575889999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.150000</v>
+        <v>1163.1500000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.293000</v>
+        <v>-217.29300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>22177.789515</v>
       </c>
       <c r="L2" s="1">
-        <v>6.160497</v>
+        <v>6.1604970000000003</v>
       </c>
       <c r="M2" s="1">
-        <v>1190.300000</v>
+        <v>1190.3</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.182000</v>
+        <v>-150.18199999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>22188.273221</v>
+        <v>22188.273220999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.163409</v>
+        <v>6.1634089999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>1197.940000</v>
+        <v>1197.94</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.978000</v>
+        <v>-127.97799999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>22199.184974</v>
       </c>
       <c r="V2" s="1">
-        <v>6.166440</v>
+        <v>6.1664399999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>1204.890000</v>
+        <v>1204.8900000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.027000</v>
+        <v>-107.027</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>22209.851906</v>
@@ -556,225 +972,225 @@
         <v>6.169403</v>
       </c>
       <c r="AB2" s="1">
-        <v>1212.090000</v>
+        <v>1212.0899999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.891500</v>
+        <v>-89.891499999999994</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>22221.080872</v>
+        <v>22221.080871999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>6.172522</v>
+        <v>6.1725219999999998</v>
       </c>
       <c r="AG2" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.506500</v>
+        <v>-85.506500000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>22231.488884</v>
+        <v>22231.488883999999</v>
       </c>
       <c r="AK2" s="1">
         <v>6.175414</v>
       </c>
       <c r="AL2" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.870800</v>
+        <v>-88.870800000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>22242.044246</v>
+        <v>22242.044246000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.178346</v>
+        <v>6.1783460000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1231.360000</v>
+        <v>1231.3599999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.824000</v>
+        <v>-100.824</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>22253.070808</v>
       </c>
       <c r="AU2" s="1">
-        <v>6.181409</v>
+        <v>6.1814090000000004</v>
       </c>
       <c r="AV2" s="1">
-        <v>1241.180000</v>
+        <v>1241.18</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.234000</v>
+        <v>-120.23399999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>22264.172265</v>
+        <v>22264.172265000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.184492</v>
+        <v>6.1844919999999997</v>
       </c>
       <c r="BA2" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.648000</v>
+        <v>-137.648</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>22275.121450</v>
+        <v>22275.121449999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.187534</v>
+        <v>6.1875340000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.665000</v>
+        <v>-219.66499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>22285.534461</v>
+        <v>22285.534460999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.190426</v>
+        <v>6.1904260000000004</v>
       </c>
       <c r="BK2" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.937000</v>
+        <v>-355.93700000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>22296.221262</v>
+        <v>22296.221261999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>6.193395</v>
+        <v>6.1933949999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1473.630000</v>
+        <v>1473.63</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-577.172000</v>
+        <v>-577.17200000000003</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>22307.373312</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.196493</v>
+        <v>6.1964930000000003</v>
       </c>
       <c r="BU2" s="1">
-        <v>1604.970000</v>
+        <v>1604.97</v>
       </c>
       <c r="BV2" s="1">
-        <v>-827.265000</v>
+        <v>-827.26499999999999</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>22318.453937</v>
+        <v>22318.453936999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.199571</v>
+        <v>6.1995709999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1756.640000</v>
+        <v>1756.64</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1098.290000</v>
+        <v>-1098.29</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>22329.724066</v>
+        <v>22329.724065999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.202701</v>
+        <v>6.2027010000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2172.550000</v>
+        <v>2172.5500000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1758.440000</v>
+        <v>-1758.44</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>22157.272007</v>
       </c>
       <c r="B3" s="1">
-        <v>6.154798</v>
+        <v>6.1547980000000004</v>
       </c>
       <c r="C3" s="1">
-        <v>1141.760000</v>
+        <v>1141.76</v>
       </c>
       <c r="D3" s="1">
-        <v>-258.603000</v>
+        <v>-258.60300000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>22167.691784</v>
+        <v>22167.691783999999</v>
       </c>
       <c r="G3" s="1">
-        <v>6.157692</v>
+        <v>6.1576919999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>1163.440000</v>
+        <v>1163.44</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.146000</v>
+        <v>-217.14599999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>22178.145146</v>
+        <v>22178.145145999999</v>
       </c>
       <c r="L3" s="1">
         <v>6.160596</v>
       </c>
       <c r="M3" s="1">
-        <v>1190.300000</v>
+        <v>1190.3</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.985000</v>
+        <v>-149.98500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
         <v>22188.647438</v>
@@ -783,784 +1199,784 @@
         <v>6.163513</v>
       </c>
       <c r="R3" s="1">
-        <v>1197.890000</v>
+        <v>1197.8900000000001</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.062000</v>
+        <v>-128.06200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>22199.904643</v>
+        <v>22199.904643000002</v>
       </c>
       <c r="V3" s="1">
-        <v>6.166640</v>
+        <v>6.1666400000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1204.970000</v>
+        <v>1204.97</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.101000</v>
+        <v>-107.101</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>22210.584993</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.169607</v>
+        <v>6.1696070000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1212.190000</v>
+        <v>1212.19</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.940200</v>
+        <v>-89.940200000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>22221.427043</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.172619</v>
+        <v>6.1726190000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.416900</v>
+        <v>-85.416899999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>22231.851461</v>
+        <v>22231.851460999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.175514</v>
+        <v>6.1755139999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.867400</v>
+        <v>-88.867400000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>22242.425669</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.178452</v>
+        <v>6.1784520000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1231.350000</v>
+        <v>1231.3499999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.813000</v>
+        <v>-100.813</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>22253.757768</v>
+        <v>22253.757767999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>6.181599</v>
+        <v>6.1815990000000003</v>
       </c>
       <c r="AV3" s="1">
-        <v>1241.230000</v>
+        <v>1241.23</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.231000</v>
+        <v>-120.23099999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>22264.607752</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.184613</v>
+        <v>6.1846129999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>1249.620000</v>
+        <v>1249.6199999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.663000</v>
+        <v>-137.66300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>22275.232554</v>
+        <v>22275.232553999998</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.187565</v>
+        <v>6.1875650000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1289.530000</v>
+        <v>1289.53</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.664000</v>
+        <v>-219.66399999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>22285.912908</v>
+        <v>22285.912907999998</v>
       </c>
       <c r="BJ3" s="1">
         <v>6.190531</v>
       </c>
       <c r="BK3" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.938000</v>
+        <v>-355.93799999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>22296.648814</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.193514</v>
+        <v>6.1935140000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1473.580000</v>
+        <v>1473.58</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-577.181000</v>
+        <v>-577.18100000000004</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>22307.806352</v>
       </c>
       <c r="BT3" s="1">
-        <v>6.196613</v>
+        <v>6.1966130000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1604.850000</v>
+        <v>1604.85</v>
       </c>
       <c r="BV3" s="1">
-        <v>-827.272000</v>
+        <v>-827.27200000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>22318.918231</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.199700</v>
+        <v>6.1997</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1756.670000</v>
+        <v>1756.67</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1098.310000</v>
+        <v>-1098.31</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>22330.289474</v>
+        <v>22330.289474000001</v>
       </c>
       <c r="CD3" s="1">
         <v>6.202858</v>
       </c>
       <c r="CE3" s="1">
-        <v>2172.190000</v>
+        <v>2172.19</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1758.240000</v>
+        <v>-1758.24</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>22157.614743</v>
+        <v>22157.614742999998</v>
       </c>
       <c r="B4" s="1">
-        <v>6.154893</v>
+        <v>6.1548930000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>1142.100000</v>
+        <v>1142.0999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-258.634000</v>
+        <v>-258.63400000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>22168.034200</v>
+        <v>22168.034199999998</v>
       </c>
       <c r="G4" s="1">
-        <v>6.157787</v>
+        <v>6.1577869999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.010000</v>
+        <v>1163.01</v>
       </c>
       <c r="I4" s="1">
-        <v>-216.968000</v>
+        <v>-216.96799999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>22178.487386</v>
+        <v>22178.487386000001</v>
       </c>
       <c r="L4" s="1">
-        <v>6.160691</v>
+        <v>6.1606909999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1190.460000</v>
+        <v>1190.46</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.251000</v>
+        <v>-150.251</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>22189.344813</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.163707</v>
+        <v>6.1637069999999996</v>
       </c>
       <c r="R4" s="1">
-        <v>1197.850000</v>
+        <v>1197.8499999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.036000</v>
+        <v>-128.036</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>22200.247374</v>
+        <v>22200.247373999999</v>
       </c>
       <c r="V4" s="1">
-        <v>6.166735</v>
+        <v>6.1667350000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1204.950000</v>
+        <v>1204.95</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.028000</v>
+        <v>-107.02800000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>22210.934175</v>
+        <v>22210.934174999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.169704</v>
+        <v>6.1697040000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1212.100000</v>
+        <v>1212.0999999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.936500</v>
+        <v>-89.936499999999995</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>22221.773745</v>
+        <v>22221.773744999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.172715</v>
+        <v>6.1727150000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>1216.490000</v>
+        <v>1216.49</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.585200</v>
+        <v>-85.5852</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>22232.513123</v>
+        <v>22232.513123000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.175698</v>
+        <v>6.1756979999999997</v>
       </c>
       <c r="AL4" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.882600</v>
+        <v>-88.882599999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>22243.085876</v>
+        <v>22243.085876000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.178635</v>
+        <v>6.1786349999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1231.350000</v>
+        <v>1231.3499999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.816000</v>
+        <v>-100.816</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>22254.178870</v>
+        <v>22254.17887</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.181716</v>
+        <v>6.1817159999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1241.220000</v>
+        <v>1241.22</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.210000</v>
+        <v>-120.21</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>22264.940104</v>
+        <v>22264.940104000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.184706</v>
+        <v>6.1847060000000003</v>
       </c>
       <c r="BA4" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.661000</v>
+        <v>-137.661</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>22275.570858</v>
+        <v>22275.570857999999</v>
       </c>
       <c r="BE4" s="1">
         <v>6.187659</v>
       </c>
       <c r="BF4" s="1">
-        <v>1289.530000</v>
+        <v>1289.53</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.650000</v>
+        <v>-219.65</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>22286.313677</v>
+        <v>22286.313676999998</v>
       </c>
       <c r="BJ4" s="1">
-        <v>6.190643</v>
+        <v>6.1906429999999997</v>
       </c>
       <c r="BK4" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.947000</v>
+        <v>-355.947</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>22297.048589</v>
+        <v>22297.048589000002</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.193625</v>
+        <v>6.1936249999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1473.560000</v>
+        <v>1473.56</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-577.247000</v>
+        <v>-577.24699999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>22308.225936</v>
+        <v>22308.225935999999</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.196729</v>
+        <v>6.1967290000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1604.780000</v>
+        <v>1604.78</v>
       </c>
       <c r="BV4" s="1">
-        <v>-827.190000</v>
+        <v>-827.19</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>22319.363600</v>
+        <v>22319.363600000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>6.199823</v>
+        <v>6.1998230000000003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1756.720000</v>
+        <v>1756.72</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1098.430000</v>
+        <v>-1098.43</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>22330.809784</v>
+        <v>22330.809784000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.203003</v>
+        <v>6.2030029999999998</v>
       </c>
       <c r="CE4" s="1">
-        <v>2174.130000</v>
+        <v>2174.13</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1758.090000</v>
+        <v>-1758.09</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>22157.958475</v>
+        <v>22157.958474999999</v>
       </c>
       <c r="B5" s="1">
-        <v>6.154988</v>
+        <v>6.1549880000000003</v>
       </c>
       <c r="C5" s="1">
-        <v>1141.910000</v>
+        <v>1141.9100000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-258.665000</v>
+        <v>-258.66500000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>22168.724941</v>
       </c>
       <c r="G5" s="1">
-        <v>6.157979</v>
+        <v>6.1579790000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.270000</v>
+        <v>1163.27</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.863000</v>
+        <v>-216.863</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>22179.178810</v>
+        <v>22179.178810000001</v>
       </c>
       <c r="L5" s="1">
-        <v>6.160883</v>
+        <v>6.1608830000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1190.330000</v>
+        <v>1190.33</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.111000</v>
+        <v>-150.11099999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>22189.695981</v>
+        <v>22189.695981000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.163804</v>
+        <v>6.1638039999999998</v>
       </c>
       <c r="R5" s="1">
-        <v>1197.830000</v>
+        <v>1197.83</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.039000</v>
+        <v>-128.03899999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>22200.591598</v>
+        <v>22200.591597999999</v>
       </c>
       <c r="V5" s="1">
-        <v>6.166831</v>
+        <v>6.1668310000000002</v>
       </c>
       <c r="W5" s="1">
-        <v>1204.850000</v>
+        <v>1204.8499999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.011000</v>
+        <v>-107.011</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>22211.281374</v>
+        <v>22211.281373999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.169800</v>
+        <v>6.1698000000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>1211.980000</v>
+        <v>1211.98</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.999000</v>
+        <v>-89.998999999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>22222.410608</v>
+        <v>22222.410607999998</v>
       </c>
       <c r="AF5" s="1">
         <v>6.172892</v>
       </c>
       <c r="AG5" s="1">
-        <v>1216.730000</v>
+        <v>1216.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.528200</v>
+        <v>-85.528199999999998</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>22232.898551</v>
+        <v>22232.898550999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.175805</v>
+        <v>6.1758050000000004</v>
       </c>
       <c r="AL5" s="1">
-        <v>1223.500000</v>
+        <v>1223.5</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.853300</v>
+        <v>-88.853300000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>22243.534235</v>
+        <v>22243.534234999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.178760</v>
+        <v>6.1787599999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1231.350000</v>
+        <v>1231.3499999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.855000</v>
+        <v>-100.855</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>22254.570709</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.181825</v>
+        <v>6.1818249999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.230000</v>
+        <v>-120.23</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>22265.299672</v>
+        <v>22265.299672000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>6.184805</v>
+        <v>6.1848049999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.669000</v>
+        <v>-137.66900000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>22275.935881</v>
+        <v>22275.935881000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>6.187760</v>
+        <v>6.1877599999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.646000</v>
+        <v>-219.64599999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>22286.728332</v>
+        <v>22286.728331999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.190758</v>
+        <v>6.1907579999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.924000</v>
+        <v>-355.92399999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>22297.468206</v>
+        <v>22297.468206000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>6.193741</v>
+        <v>6.1937410000000002</v>
       </c>
       <c r="BP5" s="1">
-        <v>1473.630000</v>
+        <v>1473.63</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-577.242000</v>
+        <v>-577.24199999999996</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>22308.637150</v>
+        <v>22308.637149999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>6.196844</v>
+        <v>6.1968439999999996</v>
       </c>
       <c r="BU5" s="1">
-        <v>1604.730000</v>
+        <v>1604.73</v>
       </c>
       <c r="BV5" s="1">
-        <v>-827.108000</v>
+        <v>-827.10799999999995</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>22319.795617</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.199943</v>
+        <v>6.1999430000000002</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1756.680000</v>
+        <v>1756.68</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1098.440000</v>
+        <v>-1098.44</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>22331.328096</v>
+        <v>22331.328096000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.203147</v>
+        <v>6.2031470000000004</v>
       </c>
       <c r="CE5" s="1">
-        <v>2173.490000</v>
+        <v>2173.4899999999998</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1756.080000</v>
+        <v>-1756.08</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>22158.638021</v>
+        <v>22158.638020999999</v>
       </c>
       <c r="B6" s="1">
-        <v>6.155177</v>
+        <v>6.1551770000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1141.680000</v>
+        <v>1141.68</v>
       </c>
       <c r="D6" s="1">
-        <v>-258.703000</v>
+        <v>-258.70299999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>22169.069388</v>
       </c>
       <c r="G6" s="1">
-        <v>6.158075</v>
+        <v>6.1580750000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1163.440000</v>
+        <v>1163.44</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.208000</v>
+        <v>-217.208</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>22179.526042</v>
+        <v>22179.526042000001</v>
       </c>
       <c r="L6" s="1">
-        <v>6.160979</v>
+        <v>6.1609790000000002</v>
       </c>
       <c r="M6" s="1">
-        <v>1190.030000</v>
+        <v>1190.03</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.127000</v>
+        <v>-150.12700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>22190.042683</v>
       </c>
       <c r="Q6" s="1">
-        <v>6.163901</v>
+        <v>6.1639010000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1197.880000</v>
+        <v>1197.8800000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.985000</v>
+        <v>-127.985</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>22201.249292</v>
@@ -1569,467 +1985,467 @@
         <v>6.167014</v>
       </c>
       <c r="W6" s="1">
-        <v>1204.960000</v>
+        <v>1204.96</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.103000</v>
+        <v>-107.10299999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>22211.945518</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.169985</v>
+        <v>6.1699849999999996</v>
       </c>
       <c r="AB6" s="1">
-        <v>1212.120000</v>
+        <v>1212.1199999999999</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.034900</v>
+        <v>-90.034899999999993</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>22222.803937</v>
+        <v>22222.803937000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.173001</v>
+        <v>6.1730010000000002</v>
       </c>
       <c r="AG6" s="1">
-        <v>1216.650000</v>
+        <v>1216.6500000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.236500</v>
+        <v>-85.236500000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>22233.246242</v>
+        <v>22233.246242000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.175902</v>
+        <v>6.1759019999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1223.540000</v>
+        <v>1223.54</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.858200</v>
+        <v>-88.858199999999997</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>22243.896804</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.178860</v>
+        <v>6.1788600000000002</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.826000</v>
+        <v>-100.82599999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>22254.935765</v>
+        <v>22254.935764999998</v>
       </c>
       <c r="AU6" s="1">
-        <v>6.181927</v>
+        <v>6.1819269999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1241.220000</v>
+        <v>1241.22</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.229000</v>
+        <v>-120.229</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>22265.709863</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.184919</v>
+        <v>6.1849189999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1249.620000</v>
+        <v>1249.6199999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.658000</v>
+        <v>-137.65799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>22276.364447</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.187879</v>
+        <v>6.1878789999999997</v>
       </c>
       <c r="BF6" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.671000</v>
+        <v>-219.67099999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>22287.062634</v>
+        <v>22287.062634000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.190851</v>
+        <v>6.1908510000000003</v>
       </c>
       <c r="BK6" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.919000</v>
+        <v>-355.91899999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>22297.865996</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.193852</v>
+        <v>6.1938519999999997</v>
       </c>
       <c r="BP6" s="1">
-        <v>1473.600000</v>
+        <v>1473.6</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-577.274000</v>
+        <v>-577.274</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>22309.049825</v>
+        <v>22309.049824999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.196958</v>
+        <v>6.1969580000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1604.620000</v>
+        <v>1604.62</v>
       </c>
       <c r="BV6" s="1">
-        <v>-827.019000</v>
+        <v>-827.01900000000001</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>22320.218208</v>
+        <v>22320.218207999998</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.200061</v>
+        <v>6.2000609999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1756.720000</v>
+        <v>1756.72</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1098.280000</v>
+        <v>-1098.28</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>22331.846913</v>
+        <v>22331.846913000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.203291</v>
+        <v>6.2032910000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2171.620000</v>
+        <v>2171.62</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1757.260000</v>
+        <v>-1757.26</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>22158.983700</v>
+        <v>22158.983700000001</v>
       </c>
       <c r="B7" s="1">
-        <v>6.155273</v>
+        <v>6.1552730000000002</v>
       </c>
       <c r="C7" s="1">
-        <v>1141.800000</v>
+        <v>1141.8</v>
       </c>
       <c r="D7" s="1">
-        <v>-258.601000</v>
+        <v>-258.601</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>22169.413111</v>
+        <v>22169.413111000002</v>
       </c>
       <c r="G7" s="1">
-        <v>6.158170</v>
+        <v>6.1581700000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1163.330000</v>
+        <v>1163.33</v>
       </c>
       <c r="I7" s="1">
-        <v>-216.722000</v>
+        <v>-216.72200000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>22180.184235</v>
+        <v>22180.184235000001</v>
       </c>
       <c r="L7" s="1">
         <v>6.161162</v>
       </c>
       <c r="M7" s="1">
-        <v>1190.330000</v>
+        <v>1190.33</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.354000</v>
+        <v>-150.35400000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>22190.692442</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.164081</v>
+        <v>6.1640810000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>1197.930000</v>
+        <v>1197.93</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.986000</v>
+        <v>-127.986</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
         <v>22201.627739</v>
       </c>
       <c r="V7" s="1">
-        <v>6.167119</v>
+        <v>6.1671189999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.037000</v>
+        <v>-107.03700000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
         <v>22212.327438</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.170091</v>
+        <v>6.1700910000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>1211.990000</v>
+        <v>1211.99</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.958700</v>
+        <v>-89.958699999999993</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>22223.147167</v>
+        <v>22223.147166999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.173096</v>
+        <v>6.1730960000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.591000</v>
+        <v>-85.590999999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>22233.593915</v>
+        <v>22233.593915000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.175998</v>
+        <v>6.1759979999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.879000</v>
+        <v>-88.879000000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>22244.256403</v>
+        <v>22244.256402999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.178960</v>
+        <v>6.17896</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.844000</v>
+        <v>-100.84399999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>22255.346948</v>
+        <v>22255.346947999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.182041</v>
+        <v>6.1820409999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.223000</v>
+        <v>-120.223</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>22266.016235</v>
+        <v>22266.016234999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.185005</v>
+        <v>6.1850050000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.661000</v>
+        <v>-137.661</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>22276.655609</v>
+        <v>22276.655609000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.187960</v>
+        <v>6.1879600000000003</v>
       </c>
       <c r="BF7" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.651000</v>
+        <v>-219.65100000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>22287.438602</v>
+        <v>22287.438601999998</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.190955</v>
+        <v>6.1909549999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1359.240000</v>
+        <v>1359.24</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.901000</v>
+        <v>-355.90100000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>22298.288129</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.193969</v>
+        <v>6.1939690000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1473.670000</v>
+        <v>1473.67</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-577.197000</v>
+        <v>-577.197</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>22309.465933</v>
+        <v>22309.465932999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.197074</v>
+        <v>6.1970739999999997</v>
       </c>
       <c r="BU7" s="1">
-        <v>1604.710000</v>
+        <v>1604.71</v>
       </c>
       <c r="BV7" s="1">
-        <v>-826.938000</v>
+        <v>-826.93799999999999</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>22320.639806</v>
+        <v>22320.639805999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.200178</v>
+        <v>6.2001780000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1756.640000</v>
+        <v>1756.64</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1098.490000</v>
+        <v>-1098.49</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>22332.364240</v>
+        <v>22332.364239999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.203435</v>
+        <v>6.2034349999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2171.610000</v>
+        <v>2171.61</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1757.220000</v>
+        <v>-1757.22</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>22159.327428</v>
+        <v>22159.327428000001</v>
       </c>
       <c r="B8" s="1">
-        <v>6.155369</v>
+        <v>6.1553690000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1142.260000</v>
+        <v>1142.26</v>
       </c>
       <c r="D8" s="1">
-        <v>-258.452000</v>
+        <v>-258.452</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>22170.070774</v>
@@ -2038,557 +2454,557 @@
         <v>6.158353</v>
       </c>
       <c r="H8" s="1">
-        <v>1163.300000</v>
+        <v>1163.3</v>
       </c>
       <c r="I8" s="1">
-        <v>-216.992000</v>
+        <v>-216.99199999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>22180.561656</v>
+        <v>22180.561656000002</v>
       </c>
       <c r="L8" s="1">
-        <v>6.161267</v>
+        <v>6.1612669999999996</v>
       </c>
       <c r="M8" s="1">
-        <v>1190.410000</v>
+        <v>1190.4100000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.180000</v>
+        <v>-150.18</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>22191.090235</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.164192</v>
+        <v>6.1641919999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>1197.950000</v>
+        <v>1197.95</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.032000</v>
+        <v>-128.03200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>22201.972955</v>
+        <v>22201.972955000001</v>
       </c>
       <c r="V8" s="1">
-        <v>6.167215</v>
+        <v>6.1672149999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>1204.990000</v>
+        <v>1204.99</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.064000</v>
+        <v>-107.06399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>22212.737816</v>
+        <v>22212.737816000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.170205</v>
+        <v>6.1702050000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>1212.250000</v>
+        <v>1212.25</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.841000</v>
+        <v>-89.840999999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>22223.491888</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.173192</v>
+        <v>6.1731920000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1216.710000</v>
+        <v>1216.71</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.417300</v>
+        <v>-85.417299999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>22234.020006</v>
+        <v>22234.020005999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.176117</v>
+        <v>6.1761169999999996</v>
       </c>
       <c r="AL8" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.879200</v>
+        <v>-88.879199999999997</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>22244.667589</v>
+        <v>22244.667589000001</v>
       </c>
       <c r="AP8" s="1">
         <v>6.179074</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1231.310000</v>
+        <v>1231.31</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.837000</v>
+        <v>-100.837</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>22255.664388</v>
+        <v>22255.664388000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.182129</v>
+        <v>6.1821289999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1241.200000</v>
+        <v>1241.2</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.229000</v>
+        <v>-120.229</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>22266.373014</v>
+        <v>22266.373014000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.185104</v>
+        <v>6.1851039999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1249.600000</v>
+        <v>1249.5999999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.655000</v>
+        <v>-137.655</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>22277.017159</v>
+        <v>22277.017158999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.188060</v>
+        <v>6.1880600000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1289.520000</v>
+        <v>1289.52</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.648000</v>
+        <v>-219.648</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>22287.821018</v>
+        <v>22287.821017999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.191061</v>
+        <v>6.1910610000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1359.230000</v>
+        <v>1359.23</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.946000</v>
+        <v>-355.94600000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>22299.034107</v>
+        <v>22299.034106999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.194176</v>
+        <v>6.1941759999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1473.580000</v>
+        <v>1473.58</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-577.278000</v>
+        <v>-577.27800000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>22309.880094</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.197189</v>
+        <v>6.1971889999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1604.640000</v>
+        <v>1604.64</v>
       </c>
       <c r="BV8" s="1">
-        <v>-826.796000</v>
+        <v>-826.79600000000005</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>22321.095134</v>
+        <v>22321.095133999999</v>
       </c>
       <c r="BY8" s="1">
         <v>6.200304</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1756.520000</v>
+        <v>1756.52</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1098.520000</v>
+        <v>-1098.52</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>22332.913806</v>
       </c>
       <c r="CD8" s="1">
-        <v>6.203587</v>
+        <v>6.2035869999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>2172.960000</v>
+        <v>2172.96</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1755.890000</v>
+        <v>-1755.89</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>22159.976692</v>
       </c>
       <c r="B9" s="1">
-        <v>6.155549</v>
+        <v>6.1555489999999997</v>
       </c>
       <c r="C9" s="1">
-        <v>1141.910000</v>
+        <v>1141.9100000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>-258.777000</v>
+        <v>-258.77699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>22170.446244</v>
+        <v>22170.446243999999</v>
       </c>
       <c r="G9" s="1">
-        <v>6.158457</v>
+        <v>6.1584570000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.490000</v>
+        <v>1163.49</v>
       </c>
       <c r="I9" s="1">
-        <v>-216.838000</v>
+        <v>-216.83799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>22180.907194</v>
+        <v>22180.907193999999</v>
       </c>
       <c r="L9" s="1">
-        <v>6.161363</v>
+        <v>6.1613629999999997</v>
       </c>
       <c r="M9" s="1">
-        <v>1190.550000</v>
+        <v>1190.55</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.231000</v>
+        <v>-150.23099999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>22191.436970</v>
+        <v>22191.436969999999</v>
       </c>
       <c r="Q9" s="1">
         <v>6.164288</v>
       </c>
       <c r="R9" s="1">
-        <v>1197.910000</v>
+        <v>1197.9100000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.087000</v>
+        <v>-128.08699999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>22202.318171</v>
+        <v>22202.318170999999</v>
       </c>
       <c r="V9" s="1">
-        <v>6.167311</v>
+        <v>6.1673109999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>1204.970000</v>
+        <v>1204.97</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.095000</v>
+        <v>-107.095</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>22213.321184</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.170367</v>
+        <v>6.1703669999999997</v>
       </c>
       <c r="AB9" s="1">
-        <v>1212.170000</v>
+        <v>1212.17</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.980300</v>
+        <v>-89.9803</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>22223.908031</v>
+        <v>22223.908030999999</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.173308</v>
+        <v>6.1733079999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>1216.530000</v>
+        <v>1216.53</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.553300</v>
+        <v>-85.553299999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>22234.298259</v>
+        <v>22234.298258999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>6.176194</v>
+        <v>6.1761939999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>1223.540000</v>
+        <v>1223.54</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.880200</v>
+        <v>-88.880200000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>22244.977090</v>
+        <v>22244.97709</v>
       </c>
       <c r="AP9" s="1">
-        <v>6.179160</v>
+        <v>6.1791600000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.906000</v>
+        <v>-100.90600000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>22256.029444</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.182230</v>
+        <v>6.1822299999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>1241.220000</v>
+        <v>1241.22</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.169000</v>
+        <v>-120.169</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>22266.732614</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.185204</v>
+        <v>6.1852039999999997</v>
       </c>
       <c r="BA9" s="1">
-        <v>1249.630000</v>
+        <v>1249.6300000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.655000</v>
+        <v>-137.655</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>22277.378249</v>
+        <v>22277.378249000001</v>
       </c>
       <c r="BE9" s="1">
         <v>6.188161</v>
       </c>
       <c r="BF9" s="1">
-        <v>1289.530000</v>
+        <v>1289.53</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.641000</v>
+        <v>-219.64099999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>22288.233689</v>
+        <v>22288.233689000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.191176</v>
+        <v>6.1911759999999996</v>
       </c>
       <c r="BK9" s="1">
-        <v>1359.260000</v>
+        <v>1359.26</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.928000</v>
+        <v>-355.928</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>22299.528623</v>
+        <v>22299.528622999998</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.194314</v>
+        <v>6.1943140000000003</v>
       </c>
       <c r="BP9" s="1">
-        <v>1473.600000</v>
+        <v>1473.6</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-577.252000</v>
+        <v>-577.25199999999995</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>22310.290317</v>
+        <v>22310.290316999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.197303</v>
+        <v>6.1973029999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1604.680000</v>
+        <v>1604.68</v>
       </c>
       <c r="BV9" s="1">
-        <v>-826.744000</v>
+        <v>-826.74400000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>22321.509293</v>
+        <v>22321.509292999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.200419</v>
+        <v>6.2004190000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1756.650000</v>
+        <v>1756.65</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1098.400000</v>
+        <v>-1098.4000000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>22333.751550</v>
+        <v>22333.751550000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.203820</v>
+        <v>6.2038200000000003</v>
       </c>
       <c r="CE9" s="1">
-        <v>2171.760000</v>
+        <v>2171.7600000000002</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1757.810000</v>
+        <v>-1757.81</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>22160.351666</v>
+        <v>22160.351665999999</v>
       </c>
       <c r="B10" s="1">
         <v>6.155653</v>
       </c>
       <c r="C10" s="1">
-        <v>1141.750000</v>
+        <v>1141.75</v>
       </c>
       <c r="D10" s="1">
-        <v>-258.779000</v>
+        <v>-258.779</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>22170.793482</v>
+        <v>22170.793482000001</v>
       </c>
       <c r="G10" s="1">
-        <v>6.158554</v>
+        <v>6.1585539999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>1163.140000</v>
+        <v>1163.1400000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-216.794000</v>
+        <v>-216.79400000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>22181.254070</v>
+        <v>22181.254069999999</v>
       </c>
       <c r="L10" s="1">
-        <v>6.161459</v>
+        <v>6.1614589999999998</v>
       </c>
       <c r="M10" s="1">
-        <v>1190.180000</v>
+        <v>1190.18</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.166000</v>
+        <v>-150.166</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>22191.789685</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.164386</v>
+        <v>6.1643860000000004</v>
       </c>
       <c r="R10" s="1">
-        <v>1197.920000</v>
+        <v>1197.92</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.014000</v>
+        <v>-128.01400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>22202.736298</v>
@@ -2597,996 +3013,996 @@
         <v>6.167427</v>
       </c>
       <c r="W10" s="1">
-        <v>1204.890000</v>
+        <v>1204.8900000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.035000</v>
+        <v>-107.035</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>22213.724668</v>
+        <v>22213.724667999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>6.170479</v>
+        <v>6.1704790000000003</v>
       </c>
       <c r="AB10" s="1">
-        <v>1212.210000</v>
+        <v>1212.21</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.868300</v>
+        <v>-89.868300000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>22224.187278</v>
+        <v>22224.187278000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.173385</v>
+        <v>6.1733849999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.458000</v>
+        <v>-85.457999999999998</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>22234.647408</v>
+        <v>22234.647408000001</v>
       </c>
       <c r="AK10" s="1">
         <v>6.176291</v>
       </c>
       <c r="AL10" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.895300</v>
+        <v>-88.895300000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>22245.337682</v>
+        <v>22245.337682000001</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.179260</v>
+        <v>6.1792600000000002</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1231.310000</v>
+        <v>1231.31</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.894000</v>
+        <v>-100.89400000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>22256.393507</v>
+        <v>22256.393507000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.182332</v>
+        <v>6.1823319999999997</v>
       </c>
       <c r="AV10" s="1">
-        <v>1241.230000</v>
+        <v>1241.23</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.180000</v>
+        <v>-120.18</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>22267.449528</v>
+        <v>22267.449528000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>6.185403</v>
       </c>
       <c r="BA10" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.647000</v>
+        <v>-137.64699999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>22278.099927</v>
+        <v>22278.099926999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.188361</v>
+        <v>6.1883609999999996</v>
       </c>
       <c r="BF10" s="1">
-        <v>1289.520000</v>
+        <v>1289.52</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.651000</v>
+        <v>-219.65100000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>22288.585880</v>
+        <v>22288.585879999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.191274</v>
+        <v>6.1912739999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.952000</v>
+        <v>-355.952</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>22299.932827</v>
+        <v>22299.932827000001</v>
       </c>
       <c r="BO10" s="1">
         <v>6.194426</v>
       </c>
       <c r="BP10" s="1">
-        <v>1473.590000</v>
+        <v>1473.59</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-577.264000</v>
+        <v>-577.26400000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>22310.709404</v>
+        <v>22310.709404000001</v>
       </c>
       <c r="BT10" s="1">
         <v>6.197419</v>
       </c>
       <c r="BU10" s="1">
-        <v>1604.750000</v>
+        <v>1604.75</v>
       </c>
       <c r="BV10" s="1">
-        <v>-826.653000</v>
+        <v>-826.65300000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>22322.266189</v>
+        <v>22322.266189000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.200629</v>
+        <v>6.2006290000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1756.550000</v>
+        <v>1756.55</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1098.390000</v>
+        <v>-1098.3900000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>22333.996109</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.203888</v>
+        <v>6.2038880000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>2173.940000</v>
+        <v>2173.94</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1758.340000</v>
+        <v>-1758.34</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>22160.694440</v>
+        <v>22160.694439999999</v>
       </c>
       <c r="B11" s="1">
         <v>6.155748</v>
       </c>
       <c r="C11" s="1">
-        <v>1141.620000</v>
+        <v>1141.6199999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-258.393000</v>
+        <v>-258.39299999999997</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>22171.136684</v>
+        <v>22171.136684000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6.158649</v>
+        <v>6.1586489999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>1163.170000</v>
+        <v>1163.17</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.495000</v>
+        <v>-217.495</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>22181.670214</v>
+        <v>22181.670214000002</v>
       </c>
       <c r="L11" s="1">
         <v>6.161575</v>
       </c>
       <c r="M11" s="1">
-        <v>1190.220000</v>
+        <v>1190.22</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.345000</v>
+        <v>-150.345</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>22192.211194</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.164503</v>
+        <v>6.1645029999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>1197.890000</v>
+        <v>1197.8900000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.947000</v>
+        <v>-127.947</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>22203.014089</v>
       </c>
       <c r="V11" s="1">
-        <v>6.167504</v>
+        <v>6.1675040000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1204.950000</v>
+        <v>1204.95</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.014000</v>
+        <v>-107.014</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>22214.070380</v>
+        <v>22214.070380000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>6.170575</v>
+        <v>6.1705750000000004</v>
       </c>
       <c r="AB11" s="1">
-        <v>1212.140000</v>
+        <v>1212.1400000000001</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.881000</v>
+        <v>-89.881</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>22224.530509</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.173481</v>
+        <v>6.1734809999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.458100</v>
+        <v>-85.458100000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>22234.995600</v>
+        <v>22234.995599999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.176388</v>
+        <v>6.1763880000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>1223.500000</v>
+        <v>1223.5</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.883100</v>
+        <v>-88.883099999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>22245.695299</v>
+        <v>22245.695298999999</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.179360</v>
+        <v>6.17936</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.896000</v>
+        <v>-100.896</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>22257.122163</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.182534</v>
+        <v>6.1825340000000004</v>
       </c>
       <c r="AV11" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.151000</v>
+        <v>-120.151</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>22267.805956</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.185502</v>
+        <v>6.1855019999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.654000</v>
+        <v>-137.654</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>22278.462006</v>
+        <v>22278.462006000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.188462</v>
+        <v>6.1884620000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1289.520000</v>
+        <v>1289.52</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.644000</v>
+        <v>-219.64400000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>22288.962312</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.191378</v>
+        <v>6.1913780000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.954000</v>
+        <v>-355.95400000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>22300.648552</v>
+        <v>22300.648551999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.194625</v>
+        <v>6.1946250000000003</v>
       </c>
       <c r="BP11" s="1">
-        <v>1473.610000</v>
+        <v>1473.61</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-577.227000</v>
+        <v>-577.22699999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>22311.449434</v>
+        <v>22311.449433999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.197625</v>
+        <v>6.1976250000000004</v>
       </c>
       <c r="BU11" s="1">
-        <v>1604.800000</v>
+        <v>1604.8</v>
       </c>
       <c r="BV11" s="1">
-        <v>-826.572000</v>
+        <v>-826.572</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>22322.413532</v>
+        <v>22322.413531999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.200670</v>
+        <v>6.2006699999999997</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1756.570000</v>
+        <v>1756.57</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1098.460000</v>
+        <v>-1098.46</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>22334.529804</v>
+        <v>22334.529804000002</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.204036</v>
+        <v>6.2040360000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>2173.160000</v>
+        <v>2173.16</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1756.240000</v>
+        <v>-1756.24</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>22161.036145</v>
+        <v>22161.036144999998</v>
       </c>
       <c r="B12" s="1">
         <v>6.155843</v>
       </c>
       <c r="C12" s="1">
-        <v>1141.880000</v>
+        <v>1141.8800000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-258.806000</v>
+        <v>-258.80599999999998</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>22171.558285</v>
+        <v>22171.558284999999</v>
       </c>
       <c r="G12" s="1">
         <v>6.158766</v>
       </c>
       <c r="H12" s="1">
-        <v>1163.070000</v>
+        <v>1163.07</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.075000</v>
+        <v>-217.07499999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>22181.960869</v>
+        <v>22181.960868999999</v>
       </c>
       <c r="L12" s="1">
-        <v>6.161656</v>
+        <v>6.1616559999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>1190.250000</v>
+        <v>1190.25</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.361000</v>
+        <v>-150.36099999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>22192.489612</v>
+        <v>22192.489612000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.164580</v>
+        <v>6.1645799999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1197.900000</v>
+        <v>1197.9000000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.972000</v>
+        <v>-127.97199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>22203.358812</v>
+        <v>22203.358811999999</v>
       </c>
       <c r="V12" s="1">
-        <v>6.167600</v>
+        <v>6.1676000000000002</v>
       </c>
       <c r="W12" s="1">
-        <v>1204.900000</v>
+        <v>1204.9000000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.000000</v>
+        <v>-107</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>22214.420071</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.170672</v>
+        <v>6.1706719999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>1212.210000</v>
+        <v>1212.21</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.988700</v>
+        <v>-89.988699999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>22224.872781</v>
+        <v>22224.872780999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.173576</v>
+        <v>6.1735759999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1216.410000</v>
+        <v>1216.4100000000001</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.524400</v>
+        <v>-85.5244</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>22235.690495</v>
+        <v>22235.690494999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.176581</v>
+        <v>6.1765809999999997</v>
       </c>
       <c r="AL12" s="1">
-        <v>1223.510000</v>
+        <v>1223.51</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.897700</v>
+        <v>-88.8977</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>22246.569784</v>
+        <v>22246.569783999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.179603</v>
+        <v>6.1796030000000002</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.918000</v>
+        <v>-100.91800000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>22257.486232</v>
+        <v>22257.486231999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>6.182635</v>
+        <v>6.1826350000000003</v>
       </c>
       <c r="AV12" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.173000</v>
+        <v>-120.173</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>22268.168036</v>
+        <v>22268.168035999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.185602</v>
+        <v>6.1856020000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.648000</v>
+        <v>-137.648</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>22278.820149</v>
+        <v>22278.820148999999</v>
       </c>
       <c r="BE12" s="1">
         <v>6.188561</v>
       </c>
       <c r="BF12" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.662000</v>
+        <v>-219.66200000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>22289.645303</v>
+        <v>22289.645303000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.191568</v>
+        <v>6.1915680000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.949000</v>
+        <v>-355.94900000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>22301.158440</v>
+        <v>22301.158439999999</v>
       </c>
       <c r="BO12" s="1">
-        <v>6.194766</v>
+        <v>6.1947660000000004</v>
       </c>
       <c r="BP12" s="1">
-        <v>1473.610000</v>
+        <v>1473.61</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-577.225000</v>
+        <v>-577.22500000000002</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>22311.571452</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.197659</v>
+        <v>6.1976589999999998</v>
       </c>
       <c r="BU12" s="1">
-        <v>1604.810000</v>
+        <v>1604.81</v>
       </c>
       <c r="BV12" s="1">
-        <v>-826.447000</v>
+        <v>-826.447</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>22322.835596</v>
+        <v>22322.835596000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.200788</v>
+        <v>6.2007880000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1756.710000</v>
+        <v>1756.71</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1098.400000</v>
+        <v>-1098.4000000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>22335.068960</v>
+        <v>22335.068960000001</v>
       </c>
       <c r="CD12" s="1">
         <v>6.204186</v>
       </c>
       <c r="CE12" s="1">
-        <v>2172.000000</v>
+        <v>2172</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1758.040000</v>
+        <v>-1758.04</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>22161.458242</v>
+        <v>22161.458242000001</v>
       </c>
       <c r="B13" s="1">
-        <v>6.155961</v>
+        <v>6.1559609999999996</v>
       </c>
       <c r="C13" s="1">
-        <v>1141.880000</v>
+        <v>1141.8800000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-258.512000</v>
+        <v>-258.512</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>22171.847970</v>
+        <v>22171.847969999999</v>
       </c>
       <c r="G13" s="1">
-        <v>6.158847</v>
+        <v>6.1588469999999997</v>
       </c>
       <c r="H13" s="1">
-        <v>1163.330000</v>
+        <v>1163.33</v>
       </c>
       <c r="I13" s="1">
-        <v>-216.704000</v>
+        <v>-216.70400000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>22182.305093</v>
+        <v>22182.305092999999</v>
       </c>
       <c r="L13" s="1">
-        <v>6.161751</v>
+        <v>6.1617509999999998</v>
       </c>
       <c r="M13" s="1">
-        <v>1190.350000</v>
+        <v>1190.3499999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.266000</v>
+        <v>-150.26599999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>22192.840123</v>
+        <v>22192.840123000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.164678</v>
+        <v>6.1646780000000003</v>
       </c>
       <c r="R13" s="1">
-        <v>1197.890000</v>
+        <v>1197.8900000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.952000</v>
+        <v>-127.952</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>22203.704025</v>
+        <v>22203.704024999999</v>
       </c>
       <c r="V13" s="1">
-        <v>6.167696</v>
+        <v>6.1676960000000003</v>
       </c>
       <c r="W13" s="1">
-        <v>1204.970000</v>
+        <v>1204.97</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.042000</v>
+        <v>-107.042</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>22215.116938</v>
+        <v>22215.116937999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.170866</v>
+        <v>6.1708660000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1212.160000</v>
+        <v>1212.1600000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.981800</v>
+        <v>-89.981800000000007</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>22225.559245</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.173766</v>
+        <v>6.1737659999999996</v>
       </c>
       <c r="AG13" s="1">
-        <v>1216.640000</v>
+        <v>1216.6400000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.422700</v>
+        <v>-85.422700000000006</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>22236.039711</v>
+        <v>22236.039711000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.176678</v>
+        <v>6.1766779999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1223.550000</v>
+        <v>1223.55</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.871100</v>
+        <v>-88.871099999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>22246.827168</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.179674</v>
+        <v>6.1796740000000003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1231.310000</v>
+        <v>1231.31</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.893000</v>
+        <v>-100.893</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>22257.852278</v>
+        <v>22257.852277999998</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.182737</v>
+        <v>6.1827370000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>1241.240000</v>
+        <v>1241.24</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.180000</v>
+        <v>-120.18</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>22268.835650</v>
+        <v>22268.835650000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.185788</v>
+        <v>6.1857879999999996</v>
       </c>
       <c r="BA13" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.657000</v>
+        <v>-137.65700000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>22279.482773</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.188745</v>
+        <v>6.1887449999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1289.520000</v>
+        <v>1289.52</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.665000</v>
+        <v>-219.66499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>22290.087735</v>
+        <v>22290.087735000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.191691</v>
+        <v>6.1916909999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1359.250000</v>
+        <v>1359.25</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.929000</v>
+        <v>-355.92899999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>22301.577095</v>
+        <v>22301.577095000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.194883</v>
+        <v>6.1948829999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1473.580000</v>
+        <v>1473.58</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-577.222000</v>
+        <v>-577.22199999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>22311.984618</v>
+        <v>22311.984617999999</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.197774</v>
+        <v>6.1977739999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1604.890000</v>
+        <v>1604.89</v>
       </c>
       <c r="BV13" s="1">
-        <v>-826.367000</v>
+        <v>-826.36699999999996</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>22323.254746</v>
+        <v>22323.254745999999</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.200904</v>
+        <v>6.2009040000000004</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1756.640000</v>
+        <v>1756.64</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1098.340000</v>
+        <v>-1098.3399999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>22335.612042</v>
+        <v>22335.612042000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.204337</v>
+        <v>6.2043369999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>2174.560000</v>
+        <v>2174.56</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1757.050000</v>
+        <v>-1757.05</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>22161.793569</v>
+        <v>22161.793569000001</v>
       </c>
       <c r="B14" s="1">
-        <v>6.156054</v>
+        <v>6.1560540000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1141.970000</v>
+        <v>1141.97</v>
       </c>
       <c r="D14" s="1">
-        <v>-258.770000</v>
+        <v>-258.77</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>22172.194178</v>
+        <v>22172.194178000002</v>
       </c>
       <c r="G14" s="1">
-        <v>6.158943</v>
+        <v>6.1589429999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1162.980000</v>
+        <v>1162.98</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.026000</v>
+        <v>-217.02600000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>22182.653285</v>
@@ -3595,617 +4011,617 @@
         <v>6.161848</v>
       </c>
       <c r="M14" s="1">
-        <v>1190.200000</v>
+        <v>1190.2</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.969000</v>
+        <v>-149.96899999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>22193.187848</v>
+        <v>22193.187848000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.164774</v>
+        <v>6.1647740000000004</v>
       </c>
       <c r="R14" s="1">
-        <v>1197.950000</v>
+        <v>1197.95</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.064000</v>
+        <v>-128.06399999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>22204.388472</v>
+        <v>22204.388471999999</v>
       </c>
       <c r="V14" s="1">
-        <v>6.167886</v>
+        <v>6.1678860000000002</v>
       </c>
       <c r="W14" s="1">
-        <v>1204.970000</v>
+        <v>1204.97</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.042000</v>
+        <v>-107.042</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>22215.465625</v>
+        <v>22215.465625000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.170963</v>
+        <v>6.1709630000000004</v>
       </c>
       <c r="AB14" s="1">
-        <v>1212.130000</v>
+        <v>1212.1300000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.910700</v>
+        <v>-89.910700000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>22225.904923</v>
+        <v>22225.904922999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.173862</v>
+        <v>6.1738619999999997</v>
       </c>
       <c r="AG14" s="1">
-        <v>1216.630000</v>
+        <v>1216.6300000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.515000</v>
+        <v>-85.515000000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>22236.389390</v>
+        <v>22236.38939</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.176775</v>
+        <v>6.1767750000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1223.530000</v>
+        <v>1223.53</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.873900</v>
+        <v>-88.873900000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>22247.491311</v>
+        <v>22247.491311000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.179859</v>
+        <v>6.1798590000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.903000</v>
+        <v>-100.90300000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>22258.522336</v>
+        <v>22258.522336000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.182923</v>
+        <v>6.1829229999999997</v>
       </c>
       <c r="AV14" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.175000</v>
+        <v>-120.175</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>22269.244387</v>
+        <v>22269.244386999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.185901</v>
+        <v>6.1859010000000003</v>
       </c>
       <c r="BA14" s="1">
-        <v>1249.630000</v>
+        <v>1249.6300000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.655000</v>
+        <v>-137.655</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>22279.944548</v>
+        <v>22279.944547999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.188873</v>
+        <v>6.1888730000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1289.520000</v>
+        <v>1289.52</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.626000</v>
+        <v>-219.626</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>22290.467670</v>
+        <v>22290.467670000002</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.191797</v>
+        <v>6.1917970000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.940000</v>
+        <v>-355.94</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>22301.974391</v>
       </c>
       <c r="BO14" s="1">
-        <v>6.194993</v>
+        <v>6.1949930000000002</v>
       </c>
       <c r="BP14" s="1">
-        <v>1473.620000</v>
+        <v>1473.62</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-577.287000</v>
+        <v>-577.28700000000003</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>22312.415642</v>
       </c>
       <c r="BT14" s="1">
-        <v>6.197893</v>
+        <v>6.1978929999999997</v>
       </c>
       <c r="BU14" s="1">
-        <v>1605.000000</v>
+        <v>1605</v>
       </c>
       <c r="BV14" s="1">
-        <v>-826.407000</v>
+        <v>-826.40700000000004</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>22323.711176</v>
+        <v>22323.711176000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.201031</v>
+        <v>6.2010310000000004</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1756.720000</v>
+        <v>1756.72</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1098.290000</v>
+        <v>-1098.29</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>22336.148255</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.204486</v>
+        <v>6.2044860000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2171.700000</v>
+        <v>2171.6999999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1756.750000</v>
+        <v>-1756.75</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>22162.110018</v>
+        <v>22162.110017999999</v>
       </c>
       <c r="B15" s="1">
         <v>6.156142</v>
       </c>
       <c r="C15" s="1">
-        <v>1141.850000</v>
+        <v>1141.8499999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-258.550000</v>
+        <v>-258.55</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>22172.539858</v>
       </c>
       <c r="G15" s="1">
-        <v>6.159039</v>
+        <v>6.1590389999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1162.450000</v>
+        <v>1162.45</v>
       </c>
       <c r="I15" s="1">
-        <v>-215.666000</v>
+        <v>-215.666</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>22183.346196</v>
+        <v>22183.346195999999</v>
       </c>
       <c r="L15" s="1">
-        <v>6.162041</v>
+        <v>6.1620410000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>1190.240000</v>
+        <v>1190.24</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.384000</v>
+        <v>-150.38399999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>22193.883238</v>
+        <v>22193.883237999999</v>
       </c>
       <c r="Q15" s="1">
         <v>6.164968</v>
       </c>
       <c r="R15" s="1">
-        <v>1197.900000</v>
+        <v>1197.9000000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.059000</v>
+        <v>-128.059</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>22204.732729</v>
+        <v>22204.732728999999</v>
       </c>
       <c r="V15" s="1">
-        <v>6.167981</v>
+        <v>6.1679810000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.022000</v>
+        <v>-107.02200000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>22215.815306</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.171060</v>
+        <v>6.1710599999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1212.080000</v>
+        <v>1212.08</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.909700</v>
+        <v>-89.909700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>22226.247163</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.173958</v>
+        <v>6.1739579999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1216.790000</v>
+        <v>1216.79</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.421900</v>
+        <v>-85.421899999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>22237.048542</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.176958</v>
+        <v>6.1769579999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1223.550000</v>
+        <v>1223.55</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.891000</v>
+        <v>-88.891000000000005</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>22247.906958</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.179974</v>
+        <v>6.1799739999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.921000</v>
+        <v>-100.92100000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>22258.945456</v>
+        <v>22258.945456000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.183040</v>
+        <v>6.1830400000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1241.240000</v>
+        <v>1241.24</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.163000</v>
+        <v>-120.163</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>22269.625778</v>
+        <v>22269.625778000001</v>
       </c>
       <c r="AZ15" s="1">
         <v>6.186007</v>
       </c>
       <c r="BA15" s="1">
-        <v>1249.590000</v>
+        <v>1249.5899999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.634000</v>
+        <v>-137.63399999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>22280.295220</v>
+        <v>22280.29522</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.188971</v>
+        <v>6.1889710000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.654000</v>
+        <v>-219.654</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>22290.837222</v>
+        <v>22290.837221999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.191899</v>
+        <v>6.1918990000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.934000</v>
+        <v>-355.93400000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>22302.395462</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.195110</v>
+        <v>6.1951099999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1473.620000</v>
+        <v>1473.62</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-577.183000</v>
+        <v>-577.18299999999999</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>22312.845448</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.198013</v>
+        <v>6.1980130000000004</v>
       </c>
       <c r="BU15" s="1">
-        <v>1605.100000</v>
+        <v>1605.1</v>
       </c>
       <c r="BV15" s="1">
-        <v>-826.341000</v>
+        <v>-826.34100000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>22324.127895</v>
+        <v>22324.127895000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.201147</v>
+        <v>6.2011469999999997</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1756.970000</v>
+        <v>1756.97</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1098.560000</v>
+        <v>-1098.56</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>22336.689354</v>
+        <v>22336.689353999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.204636</v>
+        <v>6.2046359999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>2174.050000</v>
+        <v>2174.0500000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1758.730000</v>
+        <v>-1758.73</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>22162.784079</v>
+        <v>22162.784079000001</v>
       </c>
       <c r="B16" s="1">
-        <v>6.156329</v>
+        <v>6.1563290000000004</v>
       </c>
       <c r="C16" s="1">
-        <v>1142.100000</v>
+        <v>1142.0999999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-258.803000</v>
+        <v>-258.803</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>22173.232769</v>
+        <v>22173.232768999998</v>
       </c>
       <c r="G16" s="1">
-        <v>6.159231</v>
+        <v>6.1592310000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1163.190000</v>
+        <v>1163.19</v>
       </c>
       <c r="I16" s="1">
-        <v>-216.797000</v>
+        <v>-216.797</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>22183.692403</v>
+        <v>22183.692403000001</v>
       </c>
       <c r="L16" s="1">
-        <v>6.162137</v>
+        <v>6.1621370000000004</v>
       </c>
       <c r="M16" s="1">
-        <v>1190.340000</v>
+        <v>1190.3399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.198000</v>
+        <v>-150.19800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>22194.234869</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.165065</v>
+        <v>6.1650650000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1197.840000</v>
+        <v>1197.8399999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.028000</v>
+        <v>-128.02799999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>22205.077447</v>
       </c>
       <c r="V16" s="1">
-        <v>6.168077</v>
+        <v>6.1680770000000003</v>
       </c>
       <c r="W16" s="1">
-        <v>1204.950000</v>
+        <v>1204.95</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.116000</v>
+        <v>-107.116</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>22216.471015</v>
+        <v>22216.471014999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.171242</v>
+        <v>6.1712420000000003</v>
       </c>
       <c r="AB16" s="1">
-        <v>1211.950000</v>
+        <v>1211.95</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.069900</v>
+        <v>-90.069900000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>22226.898447</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.174138</v>
+        <v>6.1741380000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1216.380000</v>
+        <v>1216.3800000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.458300</v>
+        <v>-85.458299999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>22237.434430</v>
+        <v>22237.434430000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.177065</v>
+        <v>6.1770649999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1223.570000</v>
+        <v>1223.57</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.877200</v>
+        <v>-88.877200000000002</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>22248.289407</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.180080</v>
+        <v>6.1800800000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.903000</v>
+        <v>-100.90300000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>22259.308031</v>
@@ -4214,587 +4630,587 @@
         <v>6.183141</v>
       </c>
       <c r="AV16" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.168000</v>
+        <v>-120.16800000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>22269.982616</v>
+        <v>22269.982616000001</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.186106</v>
+        <v>6.1861059999999997</v>
       </c>
       <c r="BA16" s="1">
-        <v>1249.620000</v>
+        <v>1249.6199999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.651000</v>
+        <v>-137.65100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>22280.663779</v>
+        <v>22280.663778999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.189073</v>
+        <v>6.1890729999999996</v>
       </c>
       <c r="BF16" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.676000</v>
+        <v>-219.67599999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>22291.250357</v>
+        <v>22291.250357000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.192014</v>
+        <v>6.1920140000000004</v>
       </c>
       <c r="BK16" s="1">
-        <v>1359.240000</v>
+        <v>1359.24</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.955000</v>
+        <v>-355.95499999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>22302.793751</v>
+        <v>22302.793751000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.195220</v>
+        <v>6.1952199999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1473.580000</v>
+        <v>1473.58</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-577.173000</v>
+        <v>-577.173</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>22313.256397</v>
+        <v>22313.256397000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.198127</v>
+        <v>6.1981270000000004</v>
       </c>
       <c r="BU16" s="1">
-        <v>1605.250000</v>
+        <v>1605.25</v>
       </c>
       <c r="BV16" s="1">
-        <v>-826.329000</v>
+        <v>-826.32899999999995</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>22324.836488</v>
+        <v>22324.836488000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.201343</v>
+        <v>6.2013429999999996</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1756.630000</v>
+        <v>1756.63</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1098.400000</v>
+        <v>-1098.4000000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>22337.230516</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.204786</v>
+        <v>6.2047860000000004</v>
       </c>
       <c r="CE16" s="1">
-        <v>2173.100000</v>
+        <v>2173.1</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1756.210000</v>
+        <v>-1756.21</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>22163.128270</v>
+        <v>22163.128270000001</v>
       </c>
       <c r="B17" s="1">
-        <v>6.156425</v>
+        <v>6.1564249999999996</v>
       </c>
       <c r="C17" s="1">
-        <v>1141.750000</v>
+        <v>1141.75</v>
       </c>
       <c r="D17" s="1">
-        <v>-258.538000</v>
+        <v>-258.53800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>22173.578482</v>
+        <v>22173.578482000001</v>
       </c>
       <c r="G17" s="1">
-        <v>6.159327</v>
+        <v>6.1593270000000002</v>
       </c>
       <c r="H17" s="1">
-        <v>1162.770000</v>
+        <v>1162.77</v>
       </c>
       <c r="I17" s="1">
-        <v>-216.904000</v>
+        <v>-216.904</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>22184.038147</v>
+        <v>22184.038146999999</v>
       </c>
       <c r="L17" s="1">
-        <v>6.162233</v>
+        <v>6.1622329999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>1190.440000</v>
+        <v>1190.44</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.346000</v>
+        <v>-150.346</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>22194.582106</v>
+        <v>22194.582106000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.165162</v>
+        <v>6.1651619999999996</v>
       </c>
       <c r="R17" s="1">
-        <v>1197.880000</v>
+        <v>1197.8800000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.941000</v>
+        <v>-127.941</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>22205.730150</v>
+        <v>22205.730149999999</v>
       </c>
       <c r="V17" s="1">
-        <v>6.168258</v>
+        <v>6.1682579999999998</v>
       </c>
       <c r="W17" s="1">
-        <v>1204.890000</v>
+        <v>1204.8900000000001</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.134000</v>
+        <v>-107.134</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>22216.859911</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.171350</v>
+        <v>6.1713500000000003</v>
       </c>
       <c r="AB17" s="1">
-        <v>1212.090000</v>
+        <v>1212.0899999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.981000</v>
+        <v>-89.980999999999995</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>22227.278875</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.174244</v>
+        <v>6.1742439999999998</v>
       </c>
       <c r="AG17" s="1">
-        <v>1216.760000</v>
+        <v>1216.76</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.161000</v>
+        <v>-85.161000000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>22237.785604</v>
+        <v>22237.785604000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.177163</v>
+        <v>6.1771630000000002</v>
       </c>
       <c r="AL17" s="1">
-        <v>1223.540000</v>
+        <v>1223.54</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.881000</v>
+        <v>-88.881</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>22248.648484</v>
+        <v>22248.648484000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.180180</v>
+        <v>6.18018</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.904000</v>
+        <v>-100.904</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>22259.676031</v>
+        <v>22259.676030999999</v>
       </c>
       <c r="AU17" s="1">
         <v>6.183243</v>
       </c>
       <c r="AV17" s="1">
-        <v>1241.230000</v>
+        <v>1241.23</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.165000</v>
+        <v>-120.16500000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>22270.399275</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.186222</v>
+        <v>6.1862219999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1249.630000</v>
+        <v>1249.6300000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.635000</v>
+        <v>-137.63499999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>22281.129522</v>
+        <v>22281.129521999999</v>
       </c>
       <c r="BE17" s="1">
         <v>6.189203</v>
       </c>
       <c r="BF17" s="1">
-        <v>1289.500000</v>
+        <v>1289.5</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.653000</v>
+        <v>-219.65299999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>22291.609958</v>
+        <v>22291.609958000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.192114</v>
+        <v>6.1921140000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1359.230000</v>
+        <v>1359.23</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.929000</v>
+        <v>-355.92899999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>22303.210390</v>
+        <v>22303.21039</v>
       </c>
       <c r="BO17" s="1">
-        <v>6.195336</v>
+        <v>6.1953360000000002</v>
       </c>
       <c r="BP17" s="1">
-        <v>1473.590000</v>
+        <v>1473.59</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-577.269000</v>
+        <v>-577.26900000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>22313.686425</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.198246</v>
+        <v>6.1982460000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1605.230000</v>
+        <v>1605.23</v>
       </c>
       <c r="BV17" s="1">
-        <v>-826.405000</v>
+        <v>-826.40499999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>22325.340392</v>
+        <v>22325.340391999998</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.201483</v>
+        <v>6.2014829999999996</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1756.650000</v>
+        <v>1756.65</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1098.380000</v>
+        <v>-1098.3800000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>22337.768648</v>
+        <v>22337.768648000001</v>
       </c>
       <c r="CD17" s="1">
         <v>6.204936</v>
       </c>
       <c r="CE17" s="1">
-        <v>2171.970000</v>
+        <v>2171.9699999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1758.460000</v>
+        <v>-1758.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>22163.472526</v>
+        <v>22163.472526000001</v>
       </c>
       <c r="B18" s="1">
-        <v>6.156520</v>
+        <v>6.1565200000000004</v>
       </c>
       <c r="C18" s="1">
-        <v>1141.660000</v>
+        <v>1141.6600000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-258.794000</v>
+        <v>-258.79399999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>22173.924699</v>
+        <v>22173.924698999999</v>
       </c>
       <c r="G18" s="1">
-        <v>6.159424</v>
+        <v>6.1594239999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>1163.180000</v>
+        <v>1163.18</v>
       </c>
       <c r="I18" s="1">
-        <v>-216.874000</v>
+        <v>-216.874</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>22184.686387</v>
+        <v>22184.686387000002</v>
       </c>
       <c r="L18" s="1">
-        <v>6.162413</v>
+        <v>6.1624129999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1189.810000</v>
+        <v>1189.81</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.070000</v>
+        <v>-150.07</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>22195.238276</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.165344</v>
+        <v>6.1653440000000002</v>
       </c>
       <c r="R18" s="1">
-        <v>1197.950000</v>
+        <v>1197.95</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.979000</v>
+        <v>-127.979</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>22206.104941</v>
+        <v>22206.104941000001</v>
       </c>
       <c r="V18" s="1">
-        <v>6.168362</v>
+        <v>6.1683620000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1204.930000</v>
+        <v>1204.93</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.090000</v>
+        <v>-107.09</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>22217.208599</v>
+        <v>22217.208599000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.171447</v>
+        <v>6.1714469999999997</v>
       </c>
       <c r="AB18" s="1">
-        <v>1212.190000</v>
+        <v>1212.19</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.960400</v>
+        <v>-89.960400000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>22227.622571</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.174340</v>
+        <v>6.1743399999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1216.810000</v>
+        <v>1216.81</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.467900</v>
+        <v>-85.4679</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>22238.132299</v>
+        <v>22238.132299000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.177259</v>
+        <v>6.1772590000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.898400</v>
+        <v>-88.898399999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>22249.067764</v>
+        <v>22249.067763999999</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.180297</v>
+        <v>6.1802970000000004</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.925000</v>
+        <v>-100.925</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>22260.096142</v>
+        <v>22260.096141999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.183360</v>
+        <v>6.1833600000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.153000</v>
+        <v>-120.15300000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>22270.701136</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.186306</v>
+        <v>6.1863060000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1249.590000</v>
+        <v>1249.5899999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.668000</v>
+        <v>-137.66800000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>22281.387411</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.189274</v>
+        <v>6.1892740000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1289.530000</v>
+        <v>1289.53</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.671000</v>
+        <v>-219.67099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>22291.986422</v>
+        <v>22291.986422000002</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.192218</v>
+        <v>6.1922180000000004</v>
       </c>
       <c r="BK18" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.966000</v>
+        <v>-355.96600000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>22303.606693</v>
+        <v>22303.606693000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.195446</v>
+        <v>6.1954459999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1473.520000</v>
+        <v>1473.52</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-577.204000</v>
+        <v>-577.20399999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>22314.116919</v>
@@ -4803,135 +5219,135 @@
         <v>6.198366</v>
       </c>
       <c r="BU18" s="1">
-        <v>1605.410000</v>
+        <v>1605.41</v>
       </c>
       <c r="BV18" s="1">
-        <v>-826.448000</v>
+        <v>-826.44799999999998</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>22325.773401</v>
+        <v>22325.773400999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.201604</v>
+        <v>6.2016039999999997</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1756.710000</v>
+        <v>1756.71</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1098.450000</v>
+        <v>-1098.45</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>22338.308791</v>
+        <v>22338.308790999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.205086</v>
+        <v>6.2050859999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>2174.310000</v>
+        <v>2174.31</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1756.670000</v>
+        <v>-1756.67</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>22164.115309</v>
+        <v>22164.115309000001</v>
       </c>
       <c r="B19" s="1">
-        <v>6.156699</v>
+        <v>6.1566989999999997</v>
       </c>
       <c r="C19" s="1">
-        <v>1141.940000</v>
+        <v>1141.94</v>
       </c>
       <c r="D19" s="1">
-        <v>-258.746000</v>
+        <v>-258.74599999999998</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>22174.566511</v>
+        <v>22174.566511000001</v>
       </c>
       <c r="G19" s="1">
-        <v>6.159602</v>
+        <v>6.1596019999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>1163.500000</v>
+        <v>1163.5</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.101000</v>
+        <v>-217.101</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>22185.075250</v>
+        <v>22185.075250000002</v>
       </c>
       <c r="L19" s="1">
-        <v>6.162521</v>
+        <v>6.1625209999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>1190.430000</v>
+        <v>1190.43</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.419000</v>
+        <v>-150.41900000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>22195.616765</v>
+        <v>22195.616764999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.165449</v>
+        <v>6.1654489999999997</v>
       </c>
       <c r="R19" s="1">
-        <v>1197.950000</v>
+        <v>1197.95</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.041000</v>
+        <v>-128.041</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>22206.450373</v>
       </c>
       <c r="V19" s="1">
-        <v>6.168458</v>
+        <v>6.1684580000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1205.080000</v>
+        <v>1205.08</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.149000</v>
+        <v>-107.149</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>22217.555767</v>
+        <v>22217.555767000002</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.171543</v>
+        <v>6.1715429999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1212.200000</v>
+        <v>1212.2</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.975300</v>
+        <v>-89.975300000000004</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>22227.970264</v>
@@ -4940,195 +5356,195 @@
         <v>6.174436</v>
       </c>
       <c r="AG19" s="1">
-        <v>1216.520000</v>
+        <v>1216.52</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.418900</v>
+        <v>-85.418899999999994</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>22238.552189</v>
+        <v>22238.552189000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.177376</v>
+        <v>6.1773759999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1223.550000</v>
+        <v>1223.55</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.861700</v>
+        <v>-88.861699999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>22249.371644</v>
+        <v>22249.371643999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.180381</v>
+        <v>6.1803809999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1231.350000</v>
+        <v>1231.3499999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.912000</v>
+        <v>-100.91200000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>22260.402670</v>
+        <v>22260.402669999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.183445</v>
+        <v>6.1834449999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>1241.230000</v>
+        <v>1241.23</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.163000</v>
+        <v>-120.163</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>22271.062689</v>
+        <v>22271.062688999998</v>
       </c>
       <c r="AZ19" s="1">
-        <v>6.186406</v>
+        <v>6.1864059999999998</v>
       </c>
       <c r="BA19" s="1">
-        <v>1249.600000</v>
+        <v>1249.5999999999999</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.656000</v>
+        <v>-137.65600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>22281.748497</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.189375</v>
+        <v>6.1893750000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.632000</v>
+        <v>-219.63200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>22292.359412</v>
+        <v>22292.359412000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.192322</v>
+        <v>6.1923219999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.917000</v>
+        <v>-355.91699999999997</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>22304.031764</v>
+        <v>22304.031763999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.195564</v>
+        <v>6.1955640000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1473.570000</v>
+        <v>1473.57</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-577.230000</v>
+        <v>-577.23</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>22314.959126</v>
+        <v>22314.959126000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.198600</v>
+        <v>6.1985999999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1605.540000</v>
+        <v>1605.54</v>
       </c>
       <c r="BV19" s="1">
-        <v>-826.571000</v>
+        <v>-826.57100000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>22326.194247</v>
+        <v>22326.194246999999</v>
       </c>
       <c r="BY19" s="1">
         <v>6.201721</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1756.660000</v>
+        <v>1756.66</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1098.460000</v>
+        <v>-1098.46</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>22338.844966</v>
+        <v>22338.844966000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.205235</v>
+        <v>6.2052350000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>2171.670000</v>
+        <v>2171.67</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1757.320000</v>
+        <v>-1757.32</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>22164.496275</v>
+        <v>22164.496275000001</v>
       </c>
       <c r="B20" s="1">
-        <v>6.156805</v>
+        <v>6.1568050000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>1141.950000</v>
+        <v>1141.95</v>
       </c>
       <c r="D20" s="1">
-        <v>-258.645000</v>
+        <v>-258.64499999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>22174.955871</v>
+        <v>22174.955870999998</v>
       </c>
       <c r="G20" s="1">
-        <v>6.159710</v>
+        <v>6.1597099999999996</v>
       </c>
       <c r="H20" s="1">
-        <v>1162.980000</v>
+        <v>1162.98</v>
       </c>
       <c r="I20" s="1">
-        <v>-216.968000</v>
+        <v>-216.96799999999999</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>22185.420961</v>
@@ -5137,43 +5553,43 @@
         <v>6.162617</v>
       </c>
       <c r="M20" s="1">
-        <v>1190.460000</v>
+        <v>1190.46</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.021000</v>
+        <v>-150.02099999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>22196.039315</v>
+        <v>22196.039315000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.165566</v>
+        <v>6.1655660000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1197.910000</v>
+        <v>1197.9100000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.050000</v>
+        <v>-128.05000000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>22207.016772</v>
+        <v>22207.016771999999</v>
       </c>
       <c r="V20" s="1">
-        <v>6.168616</v>
+        <v>6.1686160000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>1204.960000</v>
+        <v>1204.96</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.011000</v>
+        <v>-107.011</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>22217.970674</v>
@@ -5182,512 +5598,512 @@
         <v>6.171659</v>
       </c>
       <c r="AB20" s="1">
-        <v>1212.240000</v>
+        <v>1212.24</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.076700</v>
+        <v>-90.076700000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>22228.377480</v>
+        <v>22228.377479999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.174549</v>
+        <v>6.1745489999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1216.590000</v>
+        <v>1216.5899999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.497500</v>
+        <v>-85.497500000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>22238.841082</v>
+        <v>22238.841081999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.177456</v>
+        <v>6.1774560000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.869100</v>
+        <v>-88.869100000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>22249.732732</v>
       </c>
       <c r="AP20" s="1">
-        <v>6.180481</v>
+        <v>6.1804810000000003</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.893000</v>
+        <v>-100.893</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>22260.769709</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.183547</v>
+        <v>6.1835469999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>1241.240000</v>
+        <v>1241.24</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.171000</v>
+        <v>-120.17100000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>22271.419844</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.186506</v>
+        <v>6.1865059999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>1249.630000</v>
+        <v>1249.6300000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.639000</v>
+        <v>-137.63900000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>22282.478609</v>
+        <v>22282.478609000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.189577</v>
+        <v>6.1895769999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1289.520000</v>
+        <v>1289.52</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.639000</v>
+        <v>-219.63900000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>22293.110354</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.192531</v>
+        <v>6.1925309999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1359.220000</v>
+        <v>1359.22</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.943000</v>
+        <v>-355.94299999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>22304.427075</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.195674</v>
+        <v>6.1956740000000003</v>
       </c>
       <c r="BP20" s="1">
-        <v>1473.590000</v>
+        <v>1473.59</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-577.248000</v>
+        <v>-577.24800000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>22315.430362</v>
+        <v>22315.430361999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>6.198731</v>
+        <v>6.1987310000000004</v>
       </c>
       <c r="BU20" s="1">
-        <v>1605.630000</v>
+        <v>1605.63</v>
       </c>
       <c r="BV20" s="1">
-        <v>-826.646000</v>
+        <v>-826.64599999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>22326.616598</v>
+        <v>22326.616598000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.201838</v>
+        <v>6.2018380000000004</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1756.600000</v>
+        <v>1756.6</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1098.480000</v>
+        <v>-1098.48</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>22339.695109</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.205471</v>
+        <v>6.2054710000000002</v>
       </c>
       <c r="CE20" s="1">
-        <v>2173.730000</v>
+        <v>2173.73</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1756.280000</v>
+        <v>-1756.28</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>22164.844465</v>
+        <v>22164.844464999998</v>
       </c>
       <c r="B21" s="1">
-        <v>6.156901</v>
+        <v>6.1569010000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>1142.260000</v>
+        <v>1142.26</v>
       </c>
       <c r="D21" s="1">
-        <v>-258.412000</v>
+        <v>-258.41199999999998</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>22175.301119</v>
       </c>
       <c r="G21" s="1">
-        <v>6.159806</v>
+        <v>6.1598059999999997</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.160000</v>
+        <v>1163.1600000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-216.559000</v>
+        <v>-216.559</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>22185.766705</v>
+        <v>22185.766704999998</v>
       </c>
       <c r="L21" s="1">
-        <v>6.162713</v>
+        <v>6.1627130000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1190.210000</v>
+        <v>1190.21</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.430000</v>
+        <v>-150.43</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>22196.623118</v>
       </c>
       <c r="Q21" s="1">
-        <v>6.165729</v>
+        <v>6.1657289999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>1197.830000</v>
+        <v>1197.83</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.998000</v>
+        <v>-127.998</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>22207.439860</v>
+        <v>22207.439859999999</v>
       </c>
       <c r="V21" s="1">
-        <v>6.168733</v>
+        <v>6.1687329999999996</v>
       </c>
       <c r="W21" s="1">
-        <v>1205.000000</v>
+        <v>1205</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.071000</v>
+        <v>-107.071</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>22218.263591</v>
+        <v>22218.263590999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.171740</v>
+        <v>6.1717399999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>1212.130000</v>
+        <v>1212.1300000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.906400</v>
+        <v>-89.906400000000005</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>22228.676569</v>
+        <v>22228.676568999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.174632</v>
+        <v>6.1746319999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1216.560000</v>
+        <v>1216.56</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.548500</v>
+        <v>-85.548500000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>22239.191258</v>
+        <v>22239.191257999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.177553</v>
+        <v>6.1775529999999996</v>
       </c>
       <c r="AL21" s="1">
-        <v>1223.540000</v>
+        <v>1223.54</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.872600</v>
+        <v>-88.872600000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>22250.091837</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.180581</v>
+        <v>6.1805810000000001</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.881000</v>
+        <v>-100.881</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>22261.132781</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.183648</v>
+        <v>6.1836479999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.170000</v>
+        <v>-120.17</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>22272.143968</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.186707</v>
+        <v>6.1867070000000002</v>
       </c>
       <c r="BA21" s="1">
-        <v>1249.610000</v>
+        <v>1249.6099999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.639000</v>
+        <v>-137.63900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>22282.855609</v>
+        <v>22282.855608999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.189682</v>
+        <v>6.1896820000000004</v>
       </c>
       <c r="BF21" s="1">
-        <v>1289.550000</v>
+        <v>1289.55</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.662000</v>
+        <v>-219.66200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>22293.487314</v>
+        <v>22293.487314000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.192635</v>
+        <v>6.1926350000000001</v>
       </c>
       <c r="BK21" s="1">
-        <v>1359.230000</v>
+        <v>1359.23</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.903000</v>
+        <v>-355.90300000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>22304.847187</v>
+        <v>22304.847186999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.195791</v>
+        <v>6.1957909999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1473.620000</v>
+        <v>1473.62</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-577.287000</v>
+        <v>-577.28700000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>22315.816709</v>
+        <v>22315.816708999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.198838</v>
+        <v>6.1988380000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1605.600000</v>
+        <v>1605.6</v>
       </c>
       <c r="BV21" s="1">
-        <v>-826.799000</v>
+        <v>-826.79899999999998</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>22327.367541</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.202047</v>
+        <v>6.2020470000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1756.670000</v>
+        <v>1756.67</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1098.390000</v>
+        <v>-1098.3900000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>22339.930246</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.205536</v>
+        <v>6.2055360000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>2173.860000</v>
+        <v>2173.86</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1756.050000</v>
+        <v>-1756.05</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>22165.187660</v>
+        <v>22165.18766</v>
       </c>
       <c r="B22" s="1">
-        <v>6.156997</v>
+        <v>6.1569969999999996</v>
       </c>
       <c r="C22" s="1">
-        <v>1141.690000</v>
+        <v>1141.69</v>
       </c>
       <c r="D22" s="1">
-        <v>-258.684000</v>
+        <v>-258.68400000000003</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>22175.646799</v>
+        <v>22175.646798999998</v>
       </c>
       <c r="G22" s="1">
-        <v>6.159902</v>
+        <v>6.1599019999999998</v>
       </c>
       <c r="H22" s="1">
-        <v>1163.120000</v>
+        <v>1163.1199999999999</v>
       </c>
       <c r="I22" s="1">
-        <v>-216.517000</v>
+        <v>-216.517</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>22186.194225</v>
+        <v>22186.194224999999</v>
       </c>
       <c r="L22" s="1">
-        <v>6.162832</v>
+        <v>6.1628319999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1190.280000</v>
+        <v>1190.28</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.872000</v>
+        <v>-149.87200000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>22197.025399</v>
+        <v>22197.025398999998</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.165840</v>
+        <v>6.1658400000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>1197.900000</v>
+        <v>1197.9000000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.965000</v>
+        <v>-127.965</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>22207.712165</v>
+        <v>22207.712165000001</v>
       </c>
       <c r="V22" s="1">
-        <v>6.168809</v>
+        <v>6.1688090000000004</v>
       </c>
       <c r="W22" s="1">
-        <v>1204.960000</v>
+        <v>1204.96</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.075000</v>
+        <v>-107.075</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>22218.611751</v>
@@ -5696,662 +6112,662 @@
         <v>6.171837</v>
       </c>
       <c r="AB22" s="1">
-        <v>1212.200000</v>
+        <v>1212.2</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.036700</v>
+        <v>-90.036699999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>22229.016342</v>
+        <v>22229.016341999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.174727</v>
+        <v>6.1747269999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.510800</v>
+        <v>-85.510800000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>22239.538985</v>
+        <v>22239.538984999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.177650</v>
+        <v>6.1776499999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>1223.560000</v>
+        <v>1223.56</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.885900</v>
+        <v>-88.885900000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>22250.813515</v>
+        <v>22250.813515000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.180782</v>
+        <v>6.1807819999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.874000</v>
+        <v>-100.874</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>22261.862892</v>
+        <v>22261.862892000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.183851</v>
+        <v>6.1838509999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1241.230000</v>
+        <v>1241.23</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.185000</v>
+        <v>-120.185</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>22272.519438</v>
+        <v>22272.519437999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.186811</v>
+        <v>6.1868109999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>1249.620000</v>
+        <v>1249.6199999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.668000</v>
+        <v>-137.66800000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>22283.216656</v>
+        <v>22283.216656000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.189782</v>
+        <v>6.1897820000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1289.530000</v>
+        <v>1289.53</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.649000</v>
+        <v>-219.649</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>22293.860803</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.192739</v>
+        <v>6.1927390000000004</v>
       </c>
       <c r="BK22" s="1">
-        <v>1359.190000</v>
+        <v>1359.19</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.894000</v>
+        <v>-355.89400000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>22305.540130</v>
+        <v>22305.540130000001</v>
       </c>
       <c r="BO22" s="1">
         <v>6.195983</v>
       </c>
       <c r="BP22" s="1">
-        <v>1473.630000</v>
+        <v>1473.63</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-577.242000</v>
+        <v>-577.24199999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>22316.257653</v>
+        <v>22316.257653000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.198960</v>
+        <v>6.1989599999999996</v>
       </c>
       <c r="BU22" s="1">
-        <v>1605.650000</v>
+        <v>1605.65</v>
       </c>
       <c r="BV22" s="1">
-        <v>-826.926000</v>
+        <v>-826.92600000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>22327.487109</v>
+        <v>22327.487109000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>6.202080</v>
+        <v>6.2020799999999996</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1756.560000</v>
+        <v>1756.56</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1098.450000</v>
+        <v>-1098.45</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>22340.447044</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.205680</v>
+        <v>6.2056800000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>2171.480000</v>
+        <v>2171.48</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1756.660000</v>
+        <v>-1756.66</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>22165.613227</v>
+        <v>22165.613227000002</v>
       </c>
       <c r="B23" s="1">
-        <v>6.157115</v>
+        <v>6.1571150000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>1141.790000</v>
+        <v>1141.79</v>
       </c>
       <c r="D23" s="1">
-        <v>-258.487000</v>
+        <v>-258.48700000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>22176.058509</v>
+        <v>22176.058508999999</v>
       </c>
       <c r="G23" s="1">
-        <v>6.160016</v>
+        <v>6.1600159999999997</v>
       </c>
       <c r="H23" s="1">
-        <v>1163.370000</v>
+        <v>1163.3699999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-216.859000</v>
+        <v>-216.85900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>22186.474496</v>
+        <v>22186.474495999999</v>
       </c>
       <c r="L23" s="1">
-        <v>6.162910</v>
+        <v>6.1629100000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1189.980000</v>
+        <v>1189.98</v>
       </c>
       <c r="N23" s="1">
-        <v>-150.230000</v>
+        <v>-150.22999999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>22197.373555</v>
+        <v>22197.373554999998</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.165937</v>
+        <v>6.1659369999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>1197.940000</v>
+        <v>1197.94</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.978000</v>
+        <v>-127.97799999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>22208.055396</v>
       </c>
       <c r="V23" s="1">
-        <v>6.168904</v>
+        <v>6.1689040000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>1204.880000</v>
+        <v>1204.8800000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.023000</v>
+        <v>-107.023</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>22218.960933</v>
+        <v>22218.960932999998</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.171934</v>
+        <v>6.1719340000000003</v>
       </c>
       <c r="AB23" s="1">
-        <v>1212.080000</v>
+        <v>1212.08</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.950100</v>
+        <v>-89.950100000000006</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>22229.361047</v>
+        <v>22229.361046999999</v>
       </c>
       <c r="AF23" s="1">
         <v>6.174823</v>
       </c>
       <c r="AG23" s="1">
-        <v>1216.720000</v>
+        <v>1216.72</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.453800</v>
+        <v>-85.453800000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>22240.237850</v>
+        <v>22240.237850000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.177844</v>
+        <v>6.1778440000000003</v>
       </c>
       <c r="AL23" s="1">
-        <v>1223.600000</v>
+        <v>1223.5999999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.848000</v>
+        <v>-88.847999999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>22251.173647</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.180882</v>
+        <v>6.1808820000000004</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1231.350000</v>
+        <v>1231.3499999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.889000</v>
+        <v>-100.889</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>22262.252748</v>
+        <v>22262.252747999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.183959</v>
+        <v>6.1839589999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.175000</v>
+        <v>-120.175</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>22272.897389</v>
+        <v>22272.897389000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.186916</v>
+        <v>6.1869160000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1249.620000</v>
+        <v>1249.6199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.661000</v>
+        <v>-137.661</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>22283.884769</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.189968</v>
+        <v>6.1899680000000004</v>
       </c>
       <c r="BF23" s="1">
-        <v>1289.550000</v>
+        <v>1289.55</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.647000</v>
+        <v>-219.64699999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>22294.539329</v>
+        <v>22294.539328999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>6.192928</v>
+        <v>6.1929280000000002</v>
       </c>
       <c r="BK23" s="1">
-        <v>1359.200000</v>
+        <v>1359.2</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.931000</v>
+        <v>-355.93099999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>22305.680962</v>
+        <v>22305.680961999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>6.196022</v>
+        <v>6.1960220000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1473.560000</v>
+        <v>1473.56</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-577.227000</v>
+        <v>-577.22699999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>22316.658915</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.199072</v>
+        <v>6.1990720000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1605.660000</v>
+        <v>1605.66</v>
       </c>
       <c r="BV23" s="1">
-        <v>-826.978000</v>
+        <v>-826.97799999999995</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>22327.922565</v>
+        <v>22327.922565000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.202201</v>
+        <v>6.2022009999999996</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1756.590000</v>
+        <v>1756.59</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1098.440000</v>
+        <v>-1098.44</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>22340.965363</v>
+        <v>22340.965362999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.205824</v>
+        <v>6.2058239999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>2172.260000</v>
+        <v>2172.2600000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1756.180000</v>
+        <v>-1756.18</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>22165.887020</v>
+        <v>22165.887019999998</v>
       </c>
       <c r="B24" s="1">
-        <v>6.157191</v>
+        <v>6.1571910000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1142.000000</v>
+        <v>1142</v>
       </c>
       <c r="D24" s="1">
-        <v>-258.718000</v>
+        <v>-258.71800000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>22176.335245</v>
+        <v>22176.335244999998</v>
       </c>
       <c r="G24" s="1">
-        <v>6.160093</v>
+        <v>6.1600929999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1163.490000</v>
+        <v>1163.49</v>
       </c>
       <c r="I24" s="1">
-        <v>-216.829000</v>
+        <v>-216.82900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>22186.821663</v>
+        <v>22186.821662999999</v>
       </c>
       <c r="L24" s="1">
-        <v>6.163006</v>
+        <v>6.1630060000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>1190.080000</v>
+        <v>1190.08</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.394000</v>
+        <v>-150.39400000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>22197.722558</v>
+        <v>22197.722558000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.166034</v>
+        <v>6.1660339999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1197.940000</v>
+        <v>1197.94</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.043000</v>
+        <v>-128.04300000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>22208.399123</v>
+        <v>22208.399122999999</v>
       </c>
       <c r="V24" s="1">
-        <v>6.169000</v>
+        <v>6.1689999999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>1204.980000</v>
+        <v>1204.98</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.028000</v>
+        <v>-107.02800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>22219.660292</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.172128</v>
+        <v>6.1721279999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>1212.170000</v>
+        <v>1212.17</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.126700</v>
+        <v>-90.1267</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>22230.048502</v>
+        <v>22230.048502000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.175013</v>
+        <v>6.1750129999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1216.560000</v>
+        <v>1216.56</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.538600</v>
+        <v>-85.538600000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>22240.584520</v>
+        <v>22240.58452</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.177940</v>
+        <v>6.1779400000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>1223.580000</v>
+        <v>1223.58</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.849100</v>
+        <v>-88.849100000000007</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>22251.533210</v>
+        <v>22251.533210000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.180981</v>
+        <v>6.1809810000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1231.330000</v>
+        <v>1231.33</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.930000</v>
+        <v>-100.93</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>22262.623300</v>
+        <v>22262.623299999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.184062</v>
+        <v>6.1840619999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.158000</v>
+        <v>-120.158</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>22273.568476</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.187102</v>
+        <v>6.1871020000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1249.620000</v>
+        <v>1249.6199999999999</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.644000</v>
+        <v>-137.64400000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>22284.336126</v>
+        <v>22284.336125999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.190093</v>
+        <v>6.1900930000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1289.530000</v>
+        <v>1289.53</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.652000</v>
+        <v>-219.65199999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>22294.987216</v>
+        <v>22294.987216000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.193052</v>
+        <v>6.1930519999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1359.230000</v>
+        <v>1359.23</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.921000</v>
+        <v>-355.92099999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>22306.090161</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.196136</v>
+        <v>6.1961360000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1473.590000</v>
+        <v>1473.59</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-577.261000</v>
+        <v>-577.26099999999997</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>22317.086467</v>
+        <v>22317.086467000001</v>
       </c>
       <c r="BT24" s="1">
-        <v>6.199191</v>
+        <v>6.1991909999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1605.550000</v>
+        <v>1605.55</v>
       </c>
       <c r="BV24" s="1">
-        <v>-827.060000</v>
+        <v>-827.06</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>22328.345652</v>
@@ -6360,120 +6776,120 @@
         <v>6.202318</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1756.800000</v>
+        <v>1756.8</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1098.430000</v>
+        <v>-1098.43</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>22341.515458</v>
+        <v>22341.515458000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.205977</v>
+        <v>6.2059769999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2173.430000</v>
+        <v>2173.4299999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1755.900000</v>
+        <v>-1755.9</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>22166.225787</v>
+        <v>22166.225786999999</v>
       </c>
       <c r="B25" s="1">
-        <v>6.157285</v>
+        <v>6.1572849999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1142.040000</v>
+        <v>1142.04</v>
       </c>
       <c r="D25" s="1">
-        <v>-258.747000</v>
+        <v>-258.74700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>22176.679469</v>
+        <v>22176.679468999999</v>
       </c>
       <c r="G25" s="1">
-        <v>6.160189</v>
+        <v>6.1601889999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1163.710000</v>
+        <v>1163.71</v>
       </c>
       <c r="I25" s="1">
-        <v>-216.589000</v>
+        <v>-216.589</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>22187.169359</v>
       </c>
       <c r="L25" s="1">
-        <v>6.163103</v>
+        <v>6.1631030000000004</v>
       </c>
       <c r="M25" s="1">
-        <v>1190.310000</v>
+        <v>1190.31</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.401000</v>
+        <v>-150.40100000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>22198.422468</v>
+        <v>22198.422468000001</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.166228</v>
+        <v>6.1662280000000003</v>
       </c>
       <c r="R25" s="1">
-        <v>1197.840000</v>
+        <v>1197.8399999999999</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.017000</v>
+        <v>-128.017</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>22209.092033</v>
+        <v>22209.092033000001</v>
       </c>
       <c r="V25" s="1">
-        <v>6.169192</v>
+        <v>6.1691919999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1204.960000</v>
+        <v>1204.96</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.037000</v>
+        <v>-107.03700000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>22220.007987</v>
+        <v>22220.007987000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.172224</v>
+        <v>6.1722239999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1212.240000</v>
+        <v>1212.24</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.928400</v>
+        <v>-89.928399999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>22230.391239</v>
@@ -6482,422 +6898,423 @@
         <v>6.175109</v>
       </c>
       <c r="AG25" s="1">
-        <v>1216.660000</v>
+        <v>1216.6600000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.485600</v>
+        <v>-85.485600000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>22240.935235</v>
+        <v>22240.935235000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.178038</v>
+        <v>6.1780379999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>1223.550000</v>
+        <v>1223.55</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.873400</v>
+        <v>-88.873400000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>22252.197353</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.181166</v>
+        <v>6.1811660000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1231.340000</v>
+        <v>1231.3399999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.928000</v>
+        <v>-100.928</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>22263.287899</v>
+        <v>22263.287898999999</v>
       </c>
       <c r="AU25" s="1">
         <v>6.184247</v>
       </c>
       <c r="AV25" s="1">
-        <v>1241.230000</v>
+        <v>1241.23</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.165000</v>
+        <v>-120.16500000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>22273.982636</v>
+        <v>22273.982636000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.187217</v>
+        <v>6.1872170000000004</v>
       </c>
       <c r="BA25" s="1">
-        <v>1249.640000</v>
+        <v>1249.6400000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.651000</v>
+        <v>-137.65100000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>22284.692286</v>
+        <v>22284.692286000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>6.190192</v>
+        <v>6.1901919999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1289.520000</v>
+        <v>1289.52</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.677000</v>
+        <v>-219.67699999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>22295.363679</v>
+        <v>22295.363678999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.193157</v>
+        <v>6.1931570000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.930000</v>
+        <v>-355.93</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>22306.487981</v>
+        <v>22306.487980999998</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.196247</v>
+        <v>6.1962469999999996</v>
       </c>
       <c r="BP25" s="1">
-        <v>1473.530000</v>
+        <v>1473.53</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-577.185000</v>
+        <v>-577.18499999999995</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>22317.502648</v>
+        <v>22317.502648000001</v>
       </c>
       <c r="BT25" s="1">
         <v>6.199306</v>
       </c>
       <c r="BU25" s="1">
-        <v>1605.600000</v>
+        <v>1605.6</v>
       </c>
       <c r="BV25" s="1">
-        <v>-827.154000</v>
+        <v>-827.154</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>22328.766260</v>
+        <v>22328.76626</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.202435</v>
+        <v>6.2024350000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1756.730000</v>
+        <v>1756.73</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1098.340000</v>
+        <v>-1098.3399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>22342.047634</v>
+        <v>22342.047633999999</v>
       </c>
       <c r="CD25" s="1">
         <v>6.206124</v>
       </c>
       <c r="CE25" s="1">
-        <v>2171.510000</v>
+        <v>2171.5100000000002</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1757.080000</v>
+        <v>-1757.08</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>22166.569514</v>
+        <v>22166.569513999999</v>
       </c>
       <c r="B26" s="1">
-        <v>6.157380</v>
+        <v>6.1573799999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1141.780000</v>
+        <v>1141.78</v>
       </c>
       <c r="D26" s="1">
-        <v>-258.686000</v>
+        <v>-258.68599999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>22177.025180</v>
+        <v>22177.025180000001</v>
       </c>
       <c r="G26" s="1">
         <v>6.160285</v>
       </c>
       <c r="H26" s="1">
-        <v>1163.060000</v>
+        <v>1163.06</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.502000</v>
+        <v>-217.50200000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>22187.862302</v>
+        <v>22187.862302000001</v>
       </c>
       <c r="L26" s="1">
-        <v>6.163295</v>
+        <v>6.1632949999999997</v>
       </c>
       <c r="M26" s="1">
-        <v>1190.650000</v>
+        <v>1190.6500000000001</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.221000</v>
+        <v>-150.221</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>22198.771279</v>
+        <v>22198.771279000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.166325</v>
+        <v>6.1663249999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>1197.860000</v>
+        <v>1197.8599999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.977000</v>
+        <v>-127.977</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>22209.434274</v>
+        <v>22209.434273999999</v>
       </c>
       <c r="V26" s="1">
-        <v>6.169287</v>
+        <v>6.1692869999999997</v>
       </c>
       <c r="W26" s="1">
-        <v>1204.970000</v>
+        <v>1204.97</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.013000</v>
+        <v>-107.01300000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>22220.357698</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.172322</v>
+        <v>6.1723220000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1212.130000</v>
+        <v>1212.1300000000001</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.013700</v>
+        <v>-90.0137</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>22231.034580</v>
+        <v>22231.03458</v>
       </c>
       <c r="AF26" s="1">
         <v>6.175287</v>
       </c>
       <c r="AG26" s="1">
-        <v>1216.680000</v>
+        <v>1216.68</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.669000</v>
+        <v>-85.668999999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>22241.585255</v>
+        <v>22241.585255000002</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.178218</v>
+        <v>6.1782180000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1223.550000</v>
+        <v>1223.55</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.845700</v>
+        <v>-88.845699999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>22252.643256</v>
+        <v>22252.643255999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.181290</v>
+        <v>6.1812899999999997</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1231.350000</v>
+        <v>1231.3499999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.875000</v>
+        <v>-100.875</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>22263.757611</v>
+        <v>22263.757611000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.184377</v>
+        <v>6.1843769999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>1241.250000</v>
+        <v>1241.25</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.168000</v>
+        <v>-120.16800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>22274.358140</v>
+        <v>22274.35814</v>
       </c>
       <c r="AZ26" s="1">
         <v>6.187322</v>
       </c>
       <c r="BA26" s="1">
-        <v>1249.600000</v>
+        <v>1249.5999999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.643000</v>
+        <v>-137.643</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>22285.054866</v>
+        <v>22285.054865999999</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.190293</v>
+        <v>6.1902929999999996</v>
       </c>
       <c r="BF26" s="1">
-        <v>1289.540000</v>
+        <v>1289.54</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.649000</v>
+        <v>-219.649</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>22295.738657</v>
+        <v>22295.738657000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.193261</v>
+        <v>6.1932609999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1359.210000</v>
+        <v>1359.21</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.938000</v>
+        <v>-355.93799999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>22306.908594</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.196363</v>
+        <v>6.1963629999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1473.570000</v>
+        <v>1473.57</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-577.204000</v>
+        <v>-577.20399999999995</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>22317.930194</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.199425</v>
+        <v>6.1994249999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>1605.530000</v>
+        <v>1605.53</v>
       </c>
       <c r="BV26" s="1">
-        <v>-827.151000</v>
+        <v>-827.15099999999995</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>22329.193987</v>
+        <v>22329.193986999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.202554</v>
+        <v>6.2025540000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1756.540000</v>
+        <v>1756.54</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1098.370000</v>
+        <v>-1098.3699999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>22342.566450</v>
+        <v>22342.566449999998</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.206268</v>
+        <v>6.2062679999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>2172.310000</v>
+        <v>2172.31</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1756.030000</v>
+        <v>-1756.03</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>